--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/62.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/62.xlsx
@@ -479,13 +479,13 @@
         <v>0.01581911231648527</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.931103180518512</v>
+        <v>-1.935830816236874</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3921786334907277</v>
+        <v>0.3925027641669095</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2306194801672868</v>
+        <v>-0.2308063663229231</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.04577853905184126</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.945115262046963</v>
+        <v>-1.949147184850007</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3105575650646588</v>
+        <v>0.3110028797323859</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.210946792190383</v>
+        <v>-0.2105262983402013</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.06479524801387734</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.014005441144354</v>
+        <v>-2.020247146732988</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2840328713971204</v>
+        <v>0.2830298183586661</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2285243111568329</v>
+        <v>-0.227722744754924</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.06414089707565294</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.079665263840608</v>
+        <v>-2.082656172354835</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2592908964485816</v>
+        <v>0.2593682789973998</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2352449125192856</v>
+        <v>-0.2342725204907404</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.04234675281753304</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.045767327313981</v>
+        <v>-2.049025424628844</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2466863012797668</v>
+        <v>0.2449780450134036</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2230286901426525</v>
+        <v>-0.2219862158057437</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.004396739781607963</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.912946752484017</v>
+        <v>-1.913235111981971</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2613218233430356</v>
+        <v>0.2631293628795806</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2098371556412924</v>
+        <v>-0.2090647902012017</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.03834764443992797</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.640767507472999</v>
+        <v>-1.641891744502999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2588061604823999</v>
+        <v>0.2622606342654899</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1832102586073905</v>
+        <v>-0.1858339650267534</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.07293618072098505</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.263301274530373</v>
+        <v>-1.265536608157554</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2428989365319496</v>
+        <v>0.2461533837265851</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1249718603572243</v>
+        <v>-0.1287752856340414</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.08783378348319178</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7751852970182316</v>
+        <v>-0.7797596276870484</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2676730325384885</v>
+        <v>0.2710165426666694</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02552214469306919</v>
+        <v>-0.02849772270234112</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.07516969489407627</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2396148364553753</v>
+        <v>-0.2461149705561009</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1630328459111529</v>
+        <v>0.1623466233084258</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06289252749999798</v>
+        <v>0.05953441689090797</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.03106110806595105</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4251260787101734</v>
+        <v>0.423886497880992</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04140061960182193</v>
+        <v>0.04049830988164036</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1628649403806984</v>
+        <v>0.1578905565349725</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.04579937909151198</v>
       </c>
       <c r="E13" t="n">
-        <v>1.112172148560534</v>
+        <v>1.107145202983536</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.124656489969588</v>
+        <v>-0.123538093131952</v>
       </c>
       <c r="G13" t="n">
-        <v>0.293921777116845</v>
+        <v>0.2907490926153004</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1546645331618202</v>
       </c>
       <c r="E14" t="n">
-        <v>1.828607526432797</v>
+        <v>1.824604074567525</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3445338922680745</v>
+        <v>-0.3490688016384368</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4416275422336235</v>
+        <v>0.4367393012252612</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.294752265862255</v>
       </c>
       <c r="E15" t="n">
-        <v>2.53236676677979</v>
+        <v>2.530362120750972</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.616333524775456</v>
+        <v>-0.6199500638966369</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6297912399494822</v>
+        <v>0.6251001054333925</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.4644184915892998</v>
       </c>
       <c r="E16" t="n">
-        <v>3.201782755932428</v>
+        <v>3.203667678017791</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9362694827920065</v>
+        <v>-0.9375426447272789</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7850571340809859</v>
+        <v>0.7812201276980778</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6588147688140787</v>
       </c>
       <c r="E17" t="n">
-        <v>3.857548755483161</v>
+        <v>3.862358153894614</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.195223612195573</v>
+        <v>-1.1980619456843</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9841653522862961</v>
+        <v>0.97967278431057</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8699761291077158</v>
       </c>
       <c r="E18" t="n">
-        <v>4.396982503294561</v>
+        <v>4.402222615892833</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.556581134551204</v>
+        <v>-1.556797221668658</v>
       </c>
       <c r="G18" t="n">
-        <v>1.183346572896152</v>
+        <v>1.178981029104335</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.084309663885257</v>
       </c>
       <c r="E19" t="n">
-        <v>4.924817629071783</v>
+        <v>4.931179058603872</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.837928021525037</v>
+        <v>-1.841407316125673</v>
       </c>
       <c r="G19" t="n">
-        <v>1.378318474859918</v>
+        <v>1.377592830958736</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.285419228626879</v>
       </c>
       <c r="E20" t="n">
-        <v>5.285538570459777</v>
+        <v>5.293831643616139</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.159102830346724</v>
+        <v>-2.161705366068768</v>
       </c>
       <c r="G20" t="n">
-        <v>1.588127385523497</v>
+        <v>1.586702378586771</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.461649397146435</v>
       </c>
       <c r="E21" t="n">
-        <v>5.59713911392533</v>
+        <v>5.604045141395328</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.473121943474867</v>
+        <v>-2.479301597019638</v>
       </c>
       <c r="G21" t="n">
-        <v>1.768130874459267</v>
+        <v>1.767632998060267</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.606867902534817</v>
       </c>
       <c r="E22" t="n">
-        <v>5.832659471469812</v>
+        <v>5.842770304499355</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.782914947403874</v>
+        <v>-2.789541375664463</v>
       </c>
       <c r="G22" t="n">
-        <v>1.895706956546688</v>
+        <v>1.895028034184415</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.72067868591739</v>
       </c>
       <c r="E23" t="n">
-        <v>5.980908374476408</v>
+        <v>5.99541979245195</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.034763022748988</v>
+        <v>-3.039978314529714</v>
       </c>
       <c r="G23" t="n">
-        <v>2.012852455072656</v>
+        <v>2.014281842153656</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.802196291682026</v>
       </c>
       <c r="E24" t="n">
-        <v>6.071250310149476</v>
+        <v>6.085425917064108</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.268859833404834</v>
+        <v>-3.274049574343969</v>
       </c>
       <c r="G24" t="n">
-        <v>2.115639840672629</v>
+        <v>2.116743637029356</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.849346609880041</v>
       </c>
       <c r="E25" t="n">
-        <v>6.084503166670654</v>
+        <v>6.100057058983104</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.44346625457256</v>
+        <v>-3.449526184173877</v>
       </c>
       <c r="G25" t="n">
-        <v>2.174527960323249</v>
+        <v>2.17176554933525</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.861193511122545</v>
       </c>
       <c r="E26" t="n">
-        <v>6.032062619389486</v>
+        <v>6.047277780544846</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.608342185238425</v>
+        <v>-3.615900124181014</v>
       </c>
       <c r="G26" t="n">
-        <v>2.200935850143515</v>
+        <v>2.198415807138606</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.83832084420758</v>
       </c>
       <c r="E27" t="n">
-        <v>5.932281472808695</v>
+        <v>5.9444860148006</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.695980841871175</v>
+        <v>-3.705466774317808</v>
       </c>
       <c r="G27" t="n">
-        <v>2.202649946602242</v>
+        <v>2.201242460242606</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.784578101344633</v>
       </c>
       <c r="E28" t="n">
-        <v>5.861025285779987</v>
+        <v>5.871633995208529</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.763205106096838</v>
+        <v>-3.772042777191109</v>
       </c>
       <c r="G28" t="n">
-        <v>2.211245249713421</v>
+        <v>2.208349974349149</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.705097754785287</v>
       </c>
       <c r="E29" t="n">
-        <v>5.665876717997221</v>
+        <v>5.674550863705309</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.800812294798419</v>
+        <v>-3.811290329922826</v>
       </c>
       <c r="G29" t="n">
-        <v>2.206507393658423</v>
+        <v>2.207824357036422</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.607260765232936</v>
       </c>
       <c r="E30" t="n">
-        <v>5.455453127087369</v>
+        <v>5.463372427932457</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.825016972049503</v>
+        <v>-3.83979411877759</v>
       </c>
       <c r="G30" t="n">
-        <v>2.160400534995617</v>
+        <v>2.162132152031434</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.497323290271997</v>
       </c>
       <c r="E31" t="n">
-        <v>5.177433689712715</v>
+        <v>5.184354317663622</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.721354287619032</v>
+        <v>-3.735923377494164</v>
       </c>
       <c r="G31" t="n">
-        <v>2.07775451280973</v>
+        <v>2.080125630909365</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.38157133691402</v>
       </c>
       <c r="E32" t="n">
-        <v>4.870162188836707</v>
+        <v>4.878469862473978</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.639223662409235</v>
+        <v>-3.654514746065322</v>
       </c>
       <c r="G32" t="n">
-        <v>1.930628386785042</v>
+        <v>1.934388010619132</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.264148248897605</v>
       </c>
       <c r="E33" t="n">
-        <v>4.58898612748951</v>
+        <v>4.597058733384144</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.504038539696044</v>
+        <v>-3.516950474987995</v>
       </c>
       <c r="G33" t="n">
-        <v>1.838645357057794</v>
+        <v>1.842064789686702</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.147439957578505</v>
       </c>
       <c r="E34" t="n">
-        <v>4.258609365574872</v>
+        <v>4.264709446498688</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.393368354453256</v>
+        <v>-3.40225201706239</v>
       </c>
       <c r="G34" t="n">
-        <v>1.7153691165981</v>
+        <v>1.715775009967372</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.034158127165464</v>
       </c>
       <c r="E35" t="n">
-        <v>3.913899311551782</v>
+        <v>3.921796711675507</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.27499860560306</v>
+        <v>-3.28388299823624</v>
       </c>
       <c r="G35" t="n">
-        <v>1.600437050977949</v>
+        <v>1.603600975190948</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9262409470791398</v>
       </c>
       <c r="E36" t="n">
-        <v>3.577711558235327</v>
+        <v>3.587448618953597</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.149410378991412</v>
+        <v>-3.159407328269864</v>
       </c>
       <c r="G36" t="n">
-        <v>1.456087936422169</v>
+        <v>1.456787299457715</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.825148882072161</v>
       </c>
       <c r="E37" t="n">
-        <v>3.230680027747693</v>
+        <v>3.235489426159146</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.012919243260904</v>
+        <v>-3.017546135660993</v>
       </c>
       <c r="G37" t="n">
-        <v>1.325384431324023</v>
+        <v>1.326050213253477</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7316938309388307</v>
       </c>
       <c r="E38" t="n">
-        <v>2.870264236410699</v>
+        <v>2.877563016817151</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.959222324597509</v>
+        <v>-2.961222590482054</v>
       </c>
       <c r="G38" t="n">
-        <v>1.179548987811698</v>
+        <v>1.180292152289971</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6463510913369198</v>
       </c>
       <c r="E39" t="n">
-        <v>2.527661031782791</v>
+        <v>2.532845662553608</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.819454110926956</v>
+        <v>-2.82204058612</v>
       </c>
       <c r="G39" t="n">
-        <v>1.078154488090453</v>
+        <v>1.079817482865998</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5686370265071685</v>
       </c>
       <c r="E40" t="n">
-        <v>2.211102165000512</v>
+        <v>2.21556553201442</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.703007975436532</v>
+        <v>-2.704443932733941</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9582626391054848</v>
+        <v>0.9594292175301209</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4980690715545639</v>
       </c>
       <c r="E41" t="n">
-        <v>1.878306103399238</v>
+        <v>1.882414678727055</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.573921473599067</v>
+        <v>-2.575313629453748</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8361690375994267</v>
+        <v>0.8374699404484264</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4335618104571193</v>
       </c>
       <c r="E42" t="n">
-        <v>1.547467966287872</v>
+        <v>1.550204096410235</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.508099585564721</v>
+        <v>-2.511543108987129</v>
       </c>
       <c r="G42" t="n">
-        <v>0.719394391288549</v>
+        <v>0.7214194779906393</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3740678699310886</v>
       </c>
       <c r="E43" t="n">
-        <v>1.28190127908058</v>
+        <v>1.285530958634579</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.428007917513879</v>
+        <v>-2.431295945814605</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6562589917414751</v>
+        <v>0.6572167832891112</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3186873885195508</v>
       </c>
       <c r="E44" t="n">
-        <v>1.012588108472016</v>
+        <v>1.017949405061833</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.314727166284545</v>
+        <v>-2.315979157522499</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5484242198912312</v>
+        <v>0.5495542971135946</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2660806433234549</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7902928665349844</v>
+        <v>0.7993276441215275</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.270573851967375</v>
+        <v>-2.271573254885602</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4420772370456235</v>
+        <v>0.4427006775804415</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2167643352678733</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5558222835678657</v>
+        <v>0.5650030659634995</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.178985035224673</v>
+        <v>-2.180638539687627</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3735469598026419</v>
+        <v>0.3770569154131864</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1704482269150146</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3572791039737371</v>
+        <v>0.3664073246380983</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.088354010029606</v>
+        <v>-2.092441414660105</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2930880896569362</v>
+        <v>0.29588992194339</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1275413761834007</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2373200927765875</v>
+        <v>0.247978443840221</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.984367924946998</v>
+        <v>-1.987471257164224</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2030191829768694</v>
+        <v>0.2073453054702319</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.08785225360208916</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1089628849605311</v>
+        <v>0.1189131127000738</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.884660510794797</v>
+        <v>-1.889862662142705</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1513232602220651</v>
+        <v>0.1544083418381552</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.05086876829776686</v>
       </c>
       <c r="E50" t="n">
-        <v>0.003997107608922887</v>
+        <v>0.0136845266921021</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.799844127121775</v>
+        <v>-1.806025240714636</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0846311835255376</v>
+        <v>0.08850323106262747</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.01666478853486998</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.08573452796214392</v>
+        <v>-0.07746919571950979</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.669731941500446</v>
+        <v>-1.676678850316989</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02578832536573522</v>
+        <v>0.03138760979437008</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.01548767706045376</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.1882138434149346</v>
+        <v>-0.1844396190999356</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.549137809383751</v>
+        <v>-1.557017688930385</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.00986604901425521</v>
+        <v>-0.007360606490255881</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.04609601784688469</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.3076749782130843</v>
+        <v>-0.3058440779070848</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.437030936819508</v>
+        <v>-1.443453688371416</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07678589321296451</v>
+        <v>-0.07532876521823763</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.07539039316134434</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.341486771902348</v>
+        <v>-0.3398617383771666</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.365564502865709</v>
+        <v>-1.371451416768253</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1406367163245837</v>
+        <v>-0.1395708812182204</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1032289196230742</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4697636770734044</v>
+        <v>-0.4688642874494047</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.319794915311904</v>
+        <v>-1.327831020004265</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1490626538572178</v>
+        <v>-0.1513125879653081</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1287901977843441</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5476572427233836</v>
+        <v>-0.5507817456379281</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.236307905425653</v>
+        <v>-1.238990013768652</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1997876446315678</v>
+        <v>-0.2001760174237496</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1514513862951952</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6467375662205388</v>
+        <v>-0.6526945624314462</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.194975404020119</v>
+        <v>-1.198412357226118</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.228617754234651</v>
+        <v>-0.2313276034913776</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1711139071533814</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6687492512390782</v>
+        <v>-0.6762100969836218</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.155269396187857</v>
+        <v>-1.156900269905402</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2628748625916418</v>
+        <v>-0.26623005310455</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1878404771959731</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7650554833635069</v>
+        <v>-0.769772898745233</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.141679268557679</v>
+        <v>-1.144095648148132</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.315181085448446</v>
+        <v>-0.3188034647619905</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2024671650006635</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8316380564532163</v>
+        <v>-0.8353027771613972</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.10292667212878</v>
+        <v>-1.10225212991078</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3487388307698915</v>
+        <v>-0.3530430525418903</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2153062445786262</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9619634090958177</v>
+        <v>-0.9677291390068162</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.092957463764055</v>
+        <v>-1.095259959603418</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3922190629171525</v>
+        <v>-0.3959524058856061</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2260042349690232</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.082634923761331</v>
+        <v>-1.090330837248511</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.092612892414601</v>
+        <v>-1.095013211476055</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.433261014752596</v>
+        <v>-0.4386631926889583</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2346470121615331</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.142864827607496</v>
+        <v>-1.149005789877859</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.1315421546625</v>
+        <v>-1.134062197667408</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4925594079167619</v>
+        <v>-0.4985178641757604</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2412212645219826</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.238257069627016</v>
+        <v>-1.245141196375651</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.159964910848219</v>
+        <v>-1.163321561409218</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5214289388182997</v>
+        <v>-0.5262164365083893</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.246278422580287</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.367802756589072</v>
+        <v>-1.378503449047342</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.120399067632684</v>
+        <v>-1.124598165942138</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5465884875208383</v>
+        <v>-0.5511014961698372</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2503325691949892</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.427282195716511</v>
+        <v>-1.437706939085599</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.198535001265754</v>
+        <v>-1.204455496274389</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6011709253513692</v>
+        <v>-0.6058007378476407</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.2541215316809491</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.527164085615575</v>
+        <v>-1.536737620947663</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.289418614780548</v>
+        <v>-1.295982990997274</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6471054983394477</v>
+        <v>-0.6496518222099925</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2582691990871608</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.554015830055477</v>
+        <v>-1.559238422076657</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.359264395353438</v>
+        <v>-1.366644938452982</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6707349166427141</v>
+        <v>-0.6734053446009861</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.263710837227631</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.621049558005277</v>
+        <v>-1.624149240102276</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.441294277244962</v>
+        <v>-1.449168316599232</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6664409152073516</v>
+        <v>-0.6670088739147151</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2711360712009611</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.676775213490989</v>
+        <v>-1.678803220289262</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.516829865228123</v>
+        <v>-1.523335839521212</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.691014984625436</v>
+        <v>-0.6926940399299809</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2802600101466167</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.709105058367981</v>
+        <v>-1.713953878077888</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.627924924465366</v>
+        <v>-1.635295247228273</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7317036048228795</v>
+        <v>-0.7352719623570604</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2904808001116437</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.689687878806986</v>
+        <v>-1.69327813706253</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.721903839932886</v>
+        <v>-1.729998346548884</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7544146528769644</v>
+        <v>-0.7570325191039636</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.3011159020278393</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.678330164707807</v>
+        <v>-1.682892814991897</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.774532733417781</v>
+        <v>-1.781675288678507</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7765723427045947</v>
+        <v>-0.7769183741021402</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3112450128255733</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.629288609382275</v>
+        <v>-1.633870240291546</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.846895636899398</v>
+        <v>-1.852331395941851</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.773404038347323</v>
+        <v>-0.775594110483686</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3196804578516764</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.541491537531662</v>
+        <v>-1.545113916845207</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.950278722120461</v>
+        <v>-1.953522218954415</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7766935266961402</v>
+        <v>-0.7779637685352307</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3254278025987207</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.424070089916512</v>
+        <v>-1.427162471773056</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.004038422851765</v>
+        <v>-2.005406487912947</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7643546602798708</v>
+        <v>-0.7642801978272344</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3277788404233574</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.289460956175184</v>
+        <v>-1.289913571083366</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.054924018916115</v>
+        <v>-2.057444791945069</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7514799562142379</v>
+        <v>-0.7509470386610562</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3259307530798231</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.108058741168324</v>
+        <v>-1.104461182672325</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.082666392691471</v>
+        <v>-2.082113764489062</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7251990905778813</v>
+        <v>-0.7242266985493361</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.319610858626415</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9482243565603669</v>
+        <v>-0.9402714746091871</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.079249880158745</v>
+        <v>-2.079655043503972</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6702355801956233</v>
+        <v>-0.66913762403126</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3083460169989609</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.7055862645727048</v>
+        <v>-0.698994147442252</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.114760439801781</v>
+        <v>-2.113095984978145</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6106159764514575</v>
+        <v>-0.6120366032439117</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2923194888270904</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4478366748441376</v>
+        <v>-0.4417511944012302</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.117222810907098</v>
+        <v>-2.114296144508872</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5167903660334827</v>
+        <v>-0.5176620147437552</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2717115246992517</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1565220395536704</v>
+        <v>-0.1549641682406708</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.102596049132375</v>
+        <v>-2.100895093106466</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4477563721991376</v>
+        <v>-0.4493711853876827</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2470907954303208</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1449063488625214</v>
+        <v>0.1433820586556127</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.035257171131575</v>
+        <v>-2.039032855494665</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3329965922537139</v>
+        <v>-0.3356728604043495</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2188203515256157</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4906209159721558</v>
+        <v>0.4854450454898845</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.977700615339863</v>
+        <v>-1.981756628936407</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2525698431660082</v>
+        <v>-0.2547526150619167</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1873568162054198</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7969156446753464</v>
+        <v>0.789037225176803</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.905450135561246</v>
+        <v>-1.909952193849563</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1783906398593009</v>
+        <v>-0.1813384769548455</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1534778932427089</v>
       </c>
       <c r="E86" t="n">
-        <v>1.112633523757262</v>
+        <v>1.105517249362173</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.854897430461623</v>
+        <v>-1.861918071706758</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1054174362756841</v>
+        <v>-0.1056525040183204</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1181315679611781</v>
       </c>
       <c r="E87" t="n">
-        <v>1.356603179603832</v>
+        <v>1.352661049758379</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.67855939225808</v>
+        <v>-1.69096396083844</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.0587922605406057</v>
+        <v>-0.05906382948551472</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.08286951880926413</v>
       </c>
       <c r="E88" t="n">
-        <v>1.580887007040681</v>
+        <v>1.57598416555141</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.496768804459038</v>
+        <v>-1.51153865094667</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01030889550592119</v>
+        <v>0.01044321993028479</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.04850352381197957</v>
       </c>
       <c r="E89" t="n">
-        <v>1.76959676274254</v>
+        <v>1.761023360352724</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.262387284425464</v>
+        <v>-1.282979802699641</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06642438383190612</v>
+        <v>0.06548411286136092</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.0158595591086986</v>
       </c>
       <c r="E90" t="n">
-        <v>1.951950929104673</v>
+        <v>1.942162766703221</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.032441390492072</v>
+        <v>-1.055283842874338</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09846951933117025</v>
+        <v>0.098073846298534</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.01523513641189428</v>
       </c>
       <c r="E91" t="n">
-        <v>2.136750676019077</v>
+        <v>2.125156434129171</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8074757205967683</v>
+        <v>-0.8316511968860345</v>
       </c>
       <c r="G91" t="n">
-        <v>0.08190381369172015</v>
+        <v>0.08103070493335675</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.04437088444616217</v>
       </c>
       <c r="E92" t="n">
-        <v>2.252742736553228</v>
+        <v>2.243398428771413</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6067526892029131</v>
+        <v>-0.631814414683361</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09201172662508107</v>
+        <v>0.09346739457171704</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.07044050299202974</v>
       </c>
       <c r="E93" t="n">
-        <v>2.356955129089927</v>
+        <v>2.347035562360294</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3577487875388891</v>
+        <v>-0.3832193264847913</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0427029824989125</v>
+        <v>0.04506680035809368</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.09196794935606903</v>
       </c>
       <c r="E94" t="n">
-        <v>2.375962035137377</v>
+        <v>2.368009153186197</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2158978152666544</v>
+        <v>-0.2414647173865566</v>
       </c>
       <c r="G94" t="n">
-        <v>0.007726070433103704</v>
+        <v>0.009406585785739616</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1076705217260523</v>
       </c>
       <c r="E95" t="n">
-        <v>2.329912118350117</v>
+        <v>2.324474899259573</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.05289220620524365</v>
+        <v>-0.07488783069478321</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.02868314880988652</v>
+        <v>-0.02782756062861402</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1168399322905025</v>
       </c>
       <c r="E96" t="n">
-        <v>2.230821574516325</v>
+        <v>2.226549473802326</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06714564758881503</v>
+        <v>0.04499379795354824</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.07145817772923867</v>
+        <v>-0.06849428010469401</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1198975277805032</v>
       </c>
       <c r="E97" t="n">
-        <v>2.083480821422274</v>
+        <v>2.076942726071184</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1370863312876144</v>
+        <v>0.1196956984768009</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1270378284058601</v>
+        <v>-0.1234008486114065</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.1188495331408984</v>
       </c>
       <c r="E98" t="n">
-        <v>1.889993788366962</v>
+        <v>1.884225138359782</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2018088031095061</v>
+        <v>0.1877339395131463</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1402439633881293</v>
+        <v>-0.1398833315096748</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.1154735966150882</v>
       </c>
       <c r="E99" t="n">
-        <v>1.692941317873651</v>
+        <v>1.686429503388198</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2109399438700491</v>
+        <v>0.199252258902325</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1339102747697674</v>
+        <v>-0.1349045675196762</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.1111545598599684</v>
       </c>
       <c r="E100" t="n">
-        <v>1.535778821272057</v>
+        <v>1.525868014830969</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2337064737515885</v>
+        <v>0.2247578390024091</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1306397670461319</v>
+        <v>-0.1295870723725867</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.1063128312720118</v>
       </c>
       <c r="E101" t="n">
-        <v>1.393879667412822</v>
+        <v>1.381161188492917</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2238219481761366</v>
+        <v>0.2180299373995018</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1106896699319554</v>
+        <v>-0.1109145173379553</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.0996933171682283</v>
       </c>
       <c r="E102" t="n">
-        <v>1.214217829730325</v>
+        <v>1.196619870090603</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2380603371586782</v>
+        <v>0.2329224279267705</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.141927398836947</v>
+        <v>-0.1430457956745831</v>
       </c>
     </row>
   </sheetData>
